--- a/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -781,10 +781,10 @@
         <v>400</v>
       </c>
       <c r="F10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E17" s="3">
         <v>2100</v>
@@ -968,7 +968,7 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="E18" s="3">
         <v>-1600</v>
       </c>
       <c r="F18" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="G18" s="3">
         <v>-1900</v>
@@ -1054,10 +1054,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="E21" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="F21" s="3">
         <v>-700</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="E23" s="3">
         <v>-1600</v>
       </c>
       <c r="F23" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="G23" s="3">
         <v>-1900</v>
@@ -1132,7 +1132,7 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="E26" s="3">
         <v>-1600</v>
       </c>
       <c r="F26" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="G26" s="3">
         <v>-1900</v>
@@ -1222,7 +1222,7 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="E27" s="3">
         <v>-1600</v>
       </c>
       <c r="F27" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="G27" s="3">
         <v>-1900</v>
@@ -1252,7 +1252,7 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="E33" s="3">
         <v>-1600</v>
       </c>
       <c r="F33" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="G33" s="3">
         <v>-1900</v>
@@ -1432,7 +1432,7 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="E35" s="3">
         <v>-1600</v>
       </c>
       <c r="F35" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="G35" s="3">
         <v>-1900</v>
@@ -1492,7 +1492,7 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
@@ -1576,7 +1576,7 @@
         <v>300</v>
       </c>
       <c r="G41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1723,10 +1723,10 @@
         <v>400</v>
       </c>
       <c r="F46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G46" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -1813,7 +1813,7 @@
         <v>200</v>
       </c>
       <c r="F49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
         <v>600</v>
       </c>
       <c r="F54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G54" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
@@ -2030,7 +2030,7 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -2108,7 +2108,7 @@
         <v>800</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
@@ -2285,7 +2285,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
@@ -2449,22 +2449,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="E72" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="F72" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="G72" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="H72" s="3">
         <v>-200</v>
       </c>
       <c r="I72" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J72" s="3">
         <v>-100</v>
@@ -2584,7 +2584,7 @@
         <v>-200</v>
       </c>
       <c r="I76" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
         <v>-100</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="E81" s="3">
         <v>-1600</v>
       </c>
       <c r="F81" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="G81" s="3">
         <v>-1900</v>
@@ -2682,7 +2682,7 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
@@ -2888,7 +2888,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="E89" s="3">
         <v>-800</v>
@@ -2897,7 +2897,7 @@
         <v>-500</v>
       </c>
       <c r="G89" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>

--- a/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>PDPTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,72 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
         <v>43524</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43159</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42794</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42429</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42155</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41790</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41425</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41060</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
+      <c r="H8" s="3">
+        <v>100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
@@ -738,26 +741,29 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>100</v>
-      </c>
       <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -768,14 +774,17 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
         <v>400</v>
@@ -784,10 +793,10 @@
         <v>400</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -884,27 +903,30 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -914,8 +936,8 @@
       <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,55 +969,59 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="E17" s="3">
-        <v>2100</v>
+        <v>3200</v>
       </c>
       <c r="F17" s="3">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="G17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>4000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2400</v>
+        <v>-1400</v>
       </c>
       <c r="E18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
-        <v>-900</v>
-      </c>
       <c r="G18" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
+        <v>-1000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-2000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,13 +1050,14 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1035,8 +1068,8 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
@@ -1047,27 +1080,30 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2300</v>
+        <v>-1400</v>
       </c>
       <c r="E21" s="3">
-        <v>-1400</v>
+        <v>-2400</v>
       </c>
       <c r="F21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1077,9 +1113,12 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,8 +1131,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1107,69 +1146,78 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2500</v>
+        <v>-1500</v>
       </c>
       <c r="E23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
-        <v>-900</v>
-      </c>
       <c r="G23" s="3">
-        <v>-1900</v>
+        <v>-1000</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>-2000</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2500</v>
+        <v>-1500</v>
       </c>
       <c r="E26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-900</v>
-      </c>
       <c r="G26" s="3">
-        <v>-1900</v>
+        <v>-1000</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>-2000</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2500</v>
+        <v>-1500</v>
       </c>
       <c r="E27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-900</v>
-      </c>
       <c r="G27" s="3">
-        <v>-1900</v>
+        <v>-1000</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>-2000</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,14 +1443,17 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1395,8 +1464,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
@@ -1407,39 +1476,45 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2500</v>
+        <v>-1500</v>
       </c>
       <c r="E33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
-        <v>-900</v>
-      </c>
       <c r="G33" s="3">
-        <v>-1900</v>
+        <v>-1000</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>-2000</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2500</v>
+        <v>-1500</v>
       </c>
       <c r="E35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
-        <v>-900</v>
-      </c>
       <c r="G35" s="3">
-        <v>-1900</v>
+        <v>-1000</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>-2000</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
         <v>43524</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43159</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42794</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42429</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42155</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41790</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41425</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41060</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,25 +1646,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>300</v>
       </c>
       <c r="G41" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -1588,11 +1674,14 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,14 +1709,17 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -1639,7 +1731,7 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -1648,11 +1740,14 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
-      </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,9 +1775,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1690,19 +1788,19 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -1710,39 +1808,45 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>400</v>
       </c>
       <c r="G46" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1770,9 +1874,12 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1786,23 +1893,26 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>3900</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1810,16 +1920,16 @@
         <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+        <v>300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,9 +2006,12 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
-        <v>700</v>
-      </c>
       <c r="G54" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>4100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,55 +2138,59 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -2068,17 +2201,20 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2087,28 +2223,31 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
@@ -2120,17 +2259,20 @@
         <v>300</v>
       </c>
       <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
-        <v>100</v>
-      </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2138,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2158,9 +2300,12 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
+        <v>900</v>
+      </c>
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
       <c r="I66" s="3">
+        <v>300</v>
+      </c>
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3">
-        <v>100</v>
-      </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>100</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4900</v>
+        <v>-6200</v>
       </c>
       <c r="E72" s="3">
-        <v>-3800</v>
+        <v>-5200</v>
       </c>
       <c r="F72" s="3">
-        <v>-2700</v>
+        <v>-4000</v>
       </c>
       <c r="G72" s="3">
-        <v>-1900</v>
+        <v>-2800</v>
       </c>
       <c r="H72" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-100</v>
       </c>
-      <c r="J72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8300</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-500</v>
-      </c>
-      <c r="E76" s="3">
-        <v>300</v>
       </c>
       <c r="F76" s="3">
         <v>300</v>
       </c>
       <c r="G76" s="3">
+        <v>300</v>
+      </c>
+      <c r="H76" s="3">
         <v>700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
         <v>43524</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43159</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42794</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42429</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42155</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41790</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41425</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41060</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2500</v>
+        <v>-1500</v>
       </c>
       <c r="E81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
-        <v>-900</v>
-      </c>
       <c r="G81" s="3">
-        <v>-1900</v>
+        <v>-1000</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>-2000</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,8 +2899,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2714,13 +2912,13 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,8 +3145,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2943,21 +3163,24 @@
       <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,9 +3241,12 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3025,29 +3254,32 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,47 +3421,53 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="E100" s="3">
         <v>800</v>
       </c>
       <c r="F100" s="3">
+        <v>800</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>4</v>
@@ -3236,40 +3484,46 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
@@ -988,7 +988,7 @@
         <v>1700</v>
       </c>
       <c r="H17" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1012,7 +1012,7 @@
         <v>-1400</v>
       </c>
       <c r="E18" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F18" s="3">
         <v>-1600</v>
@@ -1093,7 +1093,7 @@
         <v>-1400</v>
       </c>
       <c r="E21" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="F21" s="3">
         <v>-1500</v>
@@ -1102,7 +1102,7 @@
         <v>-700</v>
       </c>
       <c r="H21" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1162,7 +1162,7 @@
         <v>-2600</v>
       </c>
       <c r="F23" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G23" s="3">
         <v>-1000</v>
@@ -1261,7 +1261,7 @@
         <v>-2600</v>
       </c>
       <c r="F26" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G26" s="3">
         <v>-1000</v>
@@ -1294,7 +1294,7 @@
         <v>-2600</v>
       </c>
       <c r="F27" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G27" s="3">
         <v>-1000</v>
@@ -1492,7 +1492,7 @@
         <v>-2600</v>
       </c>
       <c r="F33" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G33" s="3">
         <v>-1000</v>
@@ -1558,7 +1558,7 @@
         <v>-2600</v>
       </c>
       <c r="F35" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G35" s="3">
         <v>-1000</v>
@@ -2211,7 +2211,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>4</v>
@@ -2451,7 +2451,7 @@
         <v>300</v>
       </c>
       <c r="G66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6200</v>
+        <v>-5100</v>
       </c>
       <c r="E72" s="3">
         <v>-5200</v>
       </c>
       <c r="F72" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="G72" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="H72" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="I72" s="3">
         <v>-200</v>
@@ -2864,7 +2864,7 @@
         <v>-2600</v>
       </c>
       <c r="F81" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G81" s="3">
         <v>-1000</v>
@@ -3110,7 +3110,7 @@
         <v>-1000</v>
       </c>
       <c r="F89" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="G89" s="3">
         <v>-500</v>
@@ -3443,7 +3443,7 @@
         <v>300</v>
       </c>
       <c r="H100" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>

--- a/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
@@ -721,10 +721,10 @@
         <v>900</v>
       </c>
       <c r="E8" s="3">
+        <v>700</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>500</v>
       </c>
       <c r="G8" s="3">
         <v>700</v>
@@ -757,7 +757,7 @@
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
@@ -976,10 +976,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E17" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F17" s="3">
         <v>2200</v>
@@ -1009,13 +1009,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E18" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F18" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G18" s="3">
         <v>-1000</v>
@@ -1090,13 +1090,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E21" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F21" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G21" s="3">
         <v>-700</v>
@@ -1156,10 +1156,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E23" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F23" s="3">
         <v>-1700</v>
@@ -1255,10 +1255,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E26" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F26" s="3">
         <v>-1700</v>
@@ -1288,10 +1288,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E27" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F27" s="3">
         <v>-1700</v>
@@ -1486,10 +1486,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E33" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F33" s="3">
         <v>-1700</v>
@@ -1552,10 +1552,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E35" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F35" s="3">
         <v>-1700</v>
@@ -1662,7 +1662,7 @@
         <v>300</v>
       </c>
       <c r="G41" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H41" s="3">
         <v>700</v>
@@ -2082,7 +2082,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E54" s="3">
         <v>400</v>
@@ -2247,13 +2247,13 @@
         <v>600</v>
       </c>
       <c r="E60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="E72" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="F72" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="G72" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="H72" s="3">
         <v>-1900</v>
@@ -2858,10 +2858,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E81" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F81" s="3">
         <v>-1700</v>
@@ -3431,13 +3431,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E100" s="3">
         <v>800</v>
       </c>
       <c r="F100" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G100" s="3">
         <v>300</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E102" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H102" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
@@ -727,7 +727,7 @@
         <v>600</v>
       </c>
       <c r="G8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -787,7 +787,7 @@
         <v>500</v>
       </c>
       <c r="E10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F10" s="3">
         <v>400</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I14" s="3">
         <v>-100</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H17" s="3">
         <v>2200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1012,16 +1012,16 @@
         <v>-1500</v>
       </c>
       <c r="E18" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F18" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G18" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H18" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
@@ -1093,7 +1093,7 @@
         <v>-1500</v>
       </c>
       <c r="E21" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F21" s="3">
         <v>-1600</v>
@@ -1102,7 +1102,7 @@
         <v>-700</v>
       </c>
       <c r="H21" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E23" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F23" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G23" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H23" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E26" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F26" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G26" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H26" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E27" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F27" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G27" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H27" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E33" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F33" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G33" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H33" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E35" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F35" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G35" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H35" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -1653,7 +1653,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
@@ -1830,7 +1830,7 @@
         <v>500</v>
       </c>
       <c r="H46" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -2088,13 +2088,13 @@
         <v>400</v>
       </c>
       <c r="F54" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G54" s="3">
         <v>800</v>
       </c>
       <c r="H54" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
@@ -2145,10 +2145,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -2244,7 +2244,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E60" s="3">
         <v>900</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -2442,13 +2442,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E66" s="3">
         <v>900</v>
       </c>
       <c r="F66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>500</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5200</v>
+        <v>-5500</v>
       </c>
       <c r="E72" s="3">
-        <v>-5300</v>
+        <v>-5500</v>
       </c>
       <c r="F72" s="3">
-        <v>-3800</v>
+        <v>-4000</v>
       </c>
       <c r="G72" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="H72" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I72" s="3">
         <v>-200</v>
@@ -2754,7 +2754,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E76" s="3">
         <v>-500</v>
@@ -2766,7 +2766,7 @@
         <v>300</v>
       </c>
       <c r="H76" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I76" s="3">
         <v>-200</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E81" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F81" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G81" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H81" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -3107,16 +3107,16 @@
         <v>-700</v>
       </c>
       <c r="E89" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="F89" s="3">
         <v>-900</v>
       </c>
       <c r="G89" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="H89" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -3257,7 +3257,7 @@
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -3431,10 +3431,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E100" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F100" s="3">
         <v>900</v>
@@ -3443,7 +3443,7 @@
         <v>300</v>
       </c>
       <c r="H100" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>

--- a/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>PDPTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,78 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43524</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43159</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42794</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42429</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42155</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41790</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41425</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41060</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>700</v>
       </c>
       <c r="F8" s="3">
         <v>600</v>
       </c>
       <c r="G8" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
+        <v>700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
@@ -744,29 +747,32 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
       <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -777,14 +783,17 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
         <v>500</v>
@@ -793,13 +802,13 @@
         <v>400</v>
       </c>
       <c r="G10" s="3">
+        <v>400</v>
+      </c>
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>100</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,14 +907,17 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>-100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -906,27 +925,30 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>3800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -939,8 +961,8 @@
       <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -957,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,61 +995,65 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="E17" s="3">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="F17" s="3">
-        <v>2400</v>
+        <v>3300</v>
       </c>
       <c r="G17" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="H17" s="3">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>4000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="E18" s="3">
-        <v>-2800</v>
+        <v>-1400</v>
       </c>
       <c r="F18" s="3">
-        <v>-1800</v>
+        <v>-2600</v>
       </c>
       <c r="G18" s="3">
-        <v>-1100</v>
+        <v>-1700</v>
       </c>
       <c r="H18" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
+        <v>-1000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2000</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,17 +1083,18 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1071,8 +1104,8 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
@@ -1083,29 +1116,32 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>-2000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1116,9 +1152,12 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1134,8 +1173,8 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1149,42 +1188,48 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1100</v>
-      </c>
       <c r="H23" s="3">
-        <v>-2100</v>
+        <v>-1000</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>-2000</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1210,14 +1255,17 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1100</v>
-      </c>
       <c r="H26" s="3">
-        <v>-2100</v>
+        <v>-1000</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>-2000</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-3800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1100</v>
-      </c>
       <c r="H27" s="3">
-        <v>-2100</v>
+        <v>-1000</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>-2000</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-3800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,17 +1512,20 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1467,8 +1536,8 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
@@ -1479,42 +1548,48 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1100</v>
-      </c>
       <c r="H33" s="3">
-        <v>-2100</v>
+        <v>-1000</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>-2000</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-3800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1100</v>
-      </c>
       <c r="H35" s="3">
-        <v>-2100</v>
+        <v>-1000</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>-2000</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-3800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43524</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43159</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42794</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42429</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42155</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41790</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41425</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41060</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,29 +1732,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>400</v>
-      </c>
       <c r="H41" s="3">
+        <v>300</v>
+      </c>
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -1677,11 +1763,14 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,18 +1801,21 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
@@ -1734,7 +1826,7 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -1743,11 +1835,14 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
-      </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,9 +1873,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1791,19 +1889,19 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1811,42 +1909,48 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="E46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
-        <v>1000</v>
-      </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1877,9 +1981,12 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1893,26 +2000,29 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>3900</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1923,16 +2033,16 @@
         <v>100</v>
       </c>
       <c r="F49" s="3">
+        <v>100</v>
+      </c>
+      <c r="G49" s="3">
         <v>200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,9 +2125,12 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="E54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
-        <v>700</v>
-      </c>
       <c r="G54" s="3">
+        <v>600</v>
+      </c>
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="H54" s="3">
-        <v>1100</v>
-      </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>4100</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,61 +2268,65 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2204,20 +2337,23 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2226,53 +2362,59 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F60" s="3">
+        <v>800</v>
+      </c>
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
       </c>
       <c r="J60" s="3">
+        <v>300</v>
+      </c>
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
-        <v>100</v>
-      </c>
       <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2280,16 +2422,16 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2303,9 +2445,12 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
+        <v>600</v>
+      </c>
+      <c r="F66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
-        <v>400</v>
-      </c>
       <c r="G66" s="3">
+        <v>300</v>
+      </c>
+      <c r="H66" s="3">
         <v>500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>300</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
       </c>
       <c r="J66" s="3">
+        <v>300</v>
+      </c>
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
-        <v>100</v>
-      </c>
       <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>100</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5500</v>
+        <v>-6400</v>
       </c>
       <c r="E72" s="3">
-        <v>-5500</v>
+        <v>-5100</v>
       </c>
       <c r="F72" s="3">
-        <v>-4000</v>
+        <v>-5200</v>
       </c>
       <c r="G72" s="3">
-        <v>-2900</v>
+        <v>-3700</v>
       </c>
       <c r="H72" s="3">
-        <v>-2000</v>
+        <v>-2800</v>
       </c>
       <c r="I72" s="3">
-        <v>-200</v>
+        <v>-1900</v>
       </c>
       <c r="J72" s="3">
         <v>-200</v>
       </c>
       <c r="K72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L72" s="3">
         <v>-100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8300</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="E76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>300</v>
       </c>
       <c r="G76" s="3">
         <v>300</v>
       </c>
       <c r="H76" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="I76" s="3">
-        <v>-200</v>
+        <v>700</v>
       </c>
       <c r="J76" s="3">
         <v>-200</v>
       </c>
       <c r="K76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43524</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43159</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42794</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42429</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42155</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41790</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41425</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41060</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1100</v>
-      </c>
       <c r="H81" s="3">
-        <v>-2100</v>
+        <v>-1000</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>-2000</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-3800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,8 +3097,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2915,13 +3113,13 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
-        <v>-1100</v>
-      </c>
       <c r="F89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
-        <v>-600</v>
-      </c>
       <c r="H89" s="3">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
       <c r="I89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,8 +3365,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3161,26 +3381,29 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,9 +3470,12 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3260,26 +3489,29 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,42 +3666,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>800</v>
+      </c>
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
-        <v>900</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>1600</v>
-      </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3469,8 +3717,8 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
@@ -3487,43 +3735,49 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1600</v>
+        <v>-1000</v>
       </c>
       <c r="E102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>-400</v>
-      </c>
       <c r="H102" s="3">
-        <v>500</v>
+        <v>-300</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
@@ -727,7 +727,7 @@
         <v>900</v>
       </c>
       <c r="F8" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G8" s="3">
         <v>500</v>
@@ -1041,7 +1041,7 @@
         <v>-1400</v>
       </c>
       <c r="E18" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F18" s="3">
         <v>-2600</v>
@@ -1126,7 +1126,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="E21" s="3">
         <v>-1400</v>
@@ -1204,7 +1204,7 @@
         <v>-1600</v>
       </c>
       <c r="F23" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G23" s="3">
         <v>-1700</v>
@@ -1312,7 +1312,7 @@
         <v>-1600</v>
       </c>
       <c r="F26" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G26" s="3">
         <v>-1700</v>
@@ -1348,7 +1348,7 @@
         <v>-1600</v>
       </c>
       <c r="F27" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G27" s="3">
         <v>-1700</v>
@@ -1564,7 +1564,7 @@
         <v>-1600</v>
       </c>
       <c r="F33" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G33" s="3">
         <v>-1700</v>
@@ -1636,7 +1636,7 @@
         <v>-1600</v>
       </c>
       <c r="F35" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G35" s="3">
         <v>-1700</v>
@@ -2798,10 +2798,10 @@
         <v>-6400</v>
       </c>
       <c r="E72" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="F72" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="G72" s="3">
         <v>-3700</v>
@@ -3058,7 +3058,7 @@
         <v>-1600</v>
       </c>
       <c r="F81" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G81" s="3">
         <v>-1700</v>
@@ -3751,7 +3751,7 @@
         <v>-1000</v>
       </c>
       <c r="E102" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F102" s="3">
         <v>-300</v>

--- a/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
@@ -727,7 +727,7 @@
         <v>900</v>
       </c>
       <c r="F8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G8" s="3">
         <v>500</v>
@@ -1008,7 +1008,7 @@
         <v>2300</v>
       </c>
       <c r="F17" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G17" s="3">
         <v>2200</v>
@@ -1041,13 +1041,13 @@
         <v>-1400</v>
       </c>
       <c r="E18" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="F18" s="3">
         <v>-2600</v>
       </c>
       <c r="G18" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="H18" s="3">
         <v>-1000</v>
@@ -1126,7 +1126,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="E21" s="3">
         <v>-1400</v>
@@ -1201,10 +1201,10 @@
         <v>-1400</v>
       </c>
       <c r="E23" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F23" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="G23" s="3">
         <v>-1700</v>
@@ -1309,10 +1309,10 @@
         <v>-1400</v>
       </c>
       <c r="E26" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F26" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="G26" s="3">
         <v>-1700</v>
@@ -1345,10 +1345,10 @@
         <v>-1400</v>
       </c>
       <c r="E27" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F27" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="G27" s="3">
         <v>-1700</v>
@@ -1561,10 +1561,10 @@
         <v>-1400</v>
       </c>
       <c r="E33" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F33" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="G33" s="3">
         <v>-1700</v>
@@ -1633,10 +1633,10 @@
         <v>-1400</v>
       </c>
       <c r="E35" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F35" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="G35" s="3">
         <v>-1700</v>
@@ -1919,7 +1919,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E46" s="3">
         <v>1800</v>
@@ -2395,7 +2395,7 @@
         <v>300</v>
       </c>
       <c r="H60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="E72" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="F72" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="G72" s="3">
         <v>-3700</v>
       </c>
       <c r="H72" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I72" s="3">
         <v>-1900</v>
@@ -3055,10 +3055,10 @@
         <v>-1400</v>
       </c>
       <c r="E81" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F81" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="G81" s="3">
         <v>-1700</v>
@@ -3329,7 +3329,7 @@
         <v>-1000</v>
       </c>
       <c r="G89" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="H89" s="3">
         <v>-500</v>
@@ -3685,7 +3685,7 @@
         <v>800</v>
       </c>
       <c r="G100" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H100" s="3">
         <v>300</v>
@@ -3751,10 +3751,10 @@
         <v>-1000</v>
       </c>
       <c r="E102" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F102" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>

--- a/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>PDPTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,84 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43524</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43159</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42794</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42429</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42155</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41790</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41425</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41060</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="J8" s="3">
+        <v>100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
@@ -750,32 +753,35 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
         <v>900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
       <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -786,32 +792,35 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>400</v>
       </c>
       <c r="G10" s="3">
         <v>400</v>
       </c>
       <c r="H10" s="3">
+        <v>400</v>
+      </c>
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,45 +926,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -964,8 +986,8 @@
       <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,68 +1021,72 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>4000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1400</v>
+        <v>-900</v>
       </c>
       <c r="E18" s="3">
         <v>-1400</v>
       </c>
       <c r="F18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
-        <v>-1600</v>
-      </c>
       <c r="H18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,8 +1116,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1093,11 +1126,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1107,8 +1140,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
@@ -1119,33 +1152,36 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1155,9 +1191,12 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1176,8 +1215,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1191,45 +1230,51 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
-        <v>-1500</v>
-      </c>
       <c r="F23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1258,14 +1303,17 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
-        <v>-1500</v>
-      </c>
       <c r="F26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-3800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
-        <v>-1500</v>
-      </c>
       <c r="F27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-3800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,9 +1581,12 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1525,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1539,8 +1608,8 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
@@ -1551,45 +1620,51 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
-        <v>-1500</v>
-      </c>
       <c r="F33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-3800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
-        <v>-1500</v>
-      </c>
       <c r="F35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-3800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43524</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43159</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42794</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42429</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42155</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41790</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41425</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41060</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,32 +1818,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>300</v>
       </c>
       <c r="I41" s="3">
+        <v>300</v>
+      </c>
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -1766,11 +1852,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
-      </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,9 +1893,12 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1814,11 +1906,11 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
@@ -1829,7 +1921,7 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1838,11 +1930,14 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
-      </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,9 +1971,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1892,19 +1990,19 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -1912,45 +2010,51 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1984,9 +2088,12 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2006,23 +2113,26 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>3900</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2036,16 +2146,16 @@
         <v>100</v>
       </c>
       <c r="G49" s="3">
+        <v>100</v>
+      </c>
+      <c r="H49" s="3">
         <v>200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>300</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>4100</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,44 +2398,48 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2314,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2340,9 +2473,12 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2350,13 +2486,13 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2365,34 +2501,37 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -2404,17 +2543,20 @@
         <v>300</v>
       </c>
       <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
-        <v>100</v>
-      </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2428,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2448,9 +2590,12 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>300</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
       </c>
       <c r="K66" s="3">
+        <v>300</v>
+      </c>
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
-        <v>100</v>
-      </c>
       <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6200</v>
+        <v>-7000</v>
       </c>
       <c r="E72" s="3">
-        <v>-5100</v>
+        <v>-6300</v>
       </c>
       <c r="F72" s="3">
         <v>-5100</v>
       </c>
       <c r="G72" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="H72" s="3">
         <v>-3700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-200</v>
       </c>
       <c r="K72" s="3">
         <v>-200</v>
       </c>
       <c r="L72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M72" s="3">
         <v>-100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8300</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>300</v>
       </c>
       <c r="H76" s="3">
         <v>300</v>
       </c>
       <c r="I76" s="3">
+        <v>300</v>
+      </c>
+      <c r="J76" s="3">
         <v>700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
       </c>
       <c r="L76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43524</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43159</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42794</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42429</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42155</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41790</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41425</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41060</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
-        <v>-1500</v>
-      </c>
       <c r="F81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-3800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,8 +3295,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3116,13 +3314,13 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
-        <v>-800</v>
-      </c>
       <c r="H89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,8 +3585,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3384,26 +3604,29 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,14 +3699,17 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -3489,29 +3718,32 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,45 +3911,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>2300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>800</v>
       </c>
       <c r="G100" s="3">
         <v>800</v>
       </c>
       <c r="H100" s="3">
+        <v>800</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3720,8 +3968,8 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
@@ -3738,46 +3986,52 @@
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
-        <v>-200</v>
-      </c>
       <c r="G102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
@@ -724,13 +724,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E8" s="3">
         <v>1300</v>
       </c>
       <c r="F8" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G8" s="3">
         <v>600</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
-        <v>2700</v>
-      </c>
       <c r="F17" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G17" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="H17" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I17" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J17" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1076,16 +1076,16 @@
         <v>-1400</v>
       </c>
       <c r="G18" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="H18" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="I18" s="3">
         <v>-1000</v>
       </c>
       <c r="J18" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
@@ -1162,7 +1162,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E21" s="3">
         <v>-1300</v>
@@ -1171,7 +1171,7 @@
         <v>-1400</v>
       </c>
       <c r="G21" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="H21" s="3">
         <v>-1500</v>
@@ -1180,7 +1180,7 @@
         <v>-700</v>
       </c>
       <c r="J21" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1246,19 +1246,19 @@
         <v>-1400</v>
       </c>
       <c r="F23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1700</v>
       </c>
       <c r="I23" s="3">
         <v>-1000</v>
       </c>
       <c r="J23" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1363,19 +1363,19 @@
         <v>-1400</v>
       </c>
       <c r="F26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1700</v>
       </c>
       <c r="I26" s="3">
         <v>-1000</v>
       </c>
       <c r="J26" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1402,19 +1402,19 @@
         <v>-1400</v>
       </c>
       <c r="F27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1700</v>
       </c>
       <c r="I27" s="3">
         <v>-1000</v>
       </c>
       <c r="J27" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1636,19 +1636,19 @@
         <v>-1400</v>
       </c>
       <c r="F33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1700</v>
       </c>
       <c r="I33" s="3">
         <v>-1000</v>
       </c>
       <c r="J33" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -1714,19 +1714,19 @@
         <v>-1400</v>
       </c>
       <c r="F35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1700</v>
       </c>
       <c r="I35" s="3">
         <v>-1000</v>
       </c>
       <c r="J35" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -1831,7 +1831,7 @@
         <v>600</v>
       </c>
       <c r="F41" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
@@ -2335,7 +2335,7 @@
         <v>500</v>
       </c>
       <c r="E54" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F54" s="3">
         <v>1900</v>
@@ -2486,10 +2486,10 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -2522,7 +2522,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>400</v>
@@ -2756,7 +2756,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -2771,7 +2771,7 @@
         <v>300</v>
       </c>
       <c r="I66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="E72" s="3">
-        <v>-6300</v>
+        <v>-6100</v>
       </c>
       <c r="F72" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="G72" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="H72" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="I72" s="3">
         <v>-2700</v>
       </c>
       <c r="J72" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="K72" s="3">
         <v>-200</v>
@@ -3252,19 +3252,19 @@
         <v>-1400</v>
       </c>
       <c r="F81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1700</v>
       </c>
       <c r="I81" s="3">
         <v>-1000</v>
       </c>
       <c r="J81" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -3536,10 +3536,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="F89" s="3">
         <v>-700</v>
@@ -3548,7 +3548,7 @@
         <v>-1000</v>
       </c>
       <c r="H89" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="I89" s="3">
         <v>-500</v>
@@ -3927,7 +3927,7 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G100" s="3">
         <v>800</v>
@@ -3939,7 +3939,7 @@
         <v>300</v>
       </c>
       <c r="J100" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -4008,7 +4008,7 @@
         <v>1500</v>
       </c>
       <c r="G102" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>

--- a/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
@@ -727,7 +727,7 @@
         <v>1600</v>
       </c>
       <c r="E8" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F8" s="3">
         <v>800</v>
@@ -766,7 +766,7 @@
         <v>1100</v>
       </c>
       <c r="E9" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F9" s="3">
         <v>400</v>
@@ -808,7 +808,7 @@
         <v>400</v>
       </c>
       <c r="F10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G10" s="3">
         <v>400</v>
@@ -817,10 +817,10 @@
         <v>400</v>
       </c>
       <c r="I10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K14" s="3">
         <v>-100</v>
@@ -1028,16 +1028,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2600</v>
       </c>
       <c r="F17" s="3">
         <v>2200</v>
       </c>
       <c r="G17" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H17" s="3">
         <v>2100</v>
@@ -1046,7 +1046,7 @@
         <v>1600</v>
       </c>
       <c r="J17" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1070,19 +1070,19 @@
         <v>-900</v>
       </c>
       <c r="E18" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F18" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G18" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="H18" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="I18" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J18" s="3">
         <v>-1900</v>
@@ -1165,22 +1165,22 @@
         <v>-800</v>
       </c>
       <c r="E21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1500</v>
       </c>
       <c r="I21" s="3">
         <v>-700</v>
       </c>
       <c r="J21" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1243,10 +1243,10 @@
         <v>-900</v>
       </c>
       <c r="E23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1500</v>
       </c>
       <c r="G23" s="3">
         <v>-2500</v>
@@ -1255,7 +1255,7 @@
         <v>-1600</v>
       </c>
       <c r="I23" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J23" s="3">
         <v>-1900</v>
@@ -1360,10 +1360,10 @@
         <v>-900</v>
       </c>
       <c r="E26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1500</v>
       </c>
       <c r="G26" s="3">
         <v>-2500</v>
@@ -1372,7 +1372,7 @@
         <v>-1600</v>
       </c>
       <c r="I26" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J26" s="3">
         <v>-1900</v>
@@ -1399,10 +1399,10 @@
         <v>-900</v>
       </c>
       <c r="E27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1500</v>
       </c>
       <c r="G27" s="3">
         <v>-2500</v>
@@ -1411,7 +1411,7 @@
         <v>-1600</v>
       </c>
       <c r="I27" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J27" s="3">
         <v>-1900</v>
@@ -1633,10 +1633,10 @@
         <v>-900</v>
       </c>
       <c r="E33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1500</v>
       </c>
       <c r="G33" s="3">
         <v>-2500</v>
@@ -1645,7 +1645,7 @@
         <v>-1600</v>
       </c>
       <c r="I33" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J33" s="3">
         <v>-1900</v>
@@ -1711,10 +1711,10 @@
         <v>-900</v>
       </c>
       <c r="E35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1500</v>
       </c>
       <c r="G35" s="3">
         <v>-2500</v>
@@ -1723,7 +1723,7 @@
         <v>-1600</v>
       </c>
       <c r="I35" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J35" s="3">
         <v>-1900</v>
@@ -1828,7 +1828,7 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F41" s="3">
         <v>1500</v>
@@ -1843,7 +1843,7 @@
         <v>300</v>
       </c>
       <c r="J41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>900</v>
       </c>
       <c r="F46" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
@@ -2035,10 +2035,10 @@
         <v>400</v>
       </c>
       <c r="I46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J46" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -2137,7 +2137,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -2152,7 +2152,7 @@
         <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -2338,19 +2338,19 @@
         <v>1000</v>
       </c>
       <c r="F54" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H54" s="3">
         <v>600</v>
       </c>
       <c r="I54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J54" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
@@ -2483,7 +2483,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -2525,7 +2525,7 @@
         <v>500</v>
       </c>
       <c r="E60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>600</v>
@@ -2534,7 +2534,7 @@
         <v>800</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
@@ -2759,13 +2759,13 @@
         <v>500</v>
       </c>
       <c r="E66" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>600</v>
       </c>
       <c r="G66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="E72" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="F72" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="G72" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="H72" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="I72" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="J72" s="3">
         <v>-1800</v>
@@ -3130,7 +3130,7 @@
         <v>700</v>
       </c>
       <c r="F76" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G76" s="3">
         <v>-500</v>
@@ -3249,10 +3249,10 @@
         <v>-900</v>
       </c>
       <c r="E81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1500</v>
       </c>
       <c r="G81" s="3">
         <v>-2500</v>
@@ -3261,7 +3261,7 @@
         <v>-1600</v>
       </c>
       <c r="I81" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J81" s="3">
         <v>-1900</v>
@@ -3542,10 +3542,10 @@
         <v>-900</v>
       </c>
       <c r="F89" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="G89" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="H89" s="3">
         <v>-800</v>
@@ -3554,7 +3554,7 @@
         <v>-500</v>
       </c>
       <c r="J89" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -3927,7 +3927,7 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G100" s="3">
         <v>800</v>
@@ -3999,13 +3999,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E102" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="F102" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G102" s="3">
         <v>-200</v>

--- a/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
@@ -766,7 +766,7 @@
         <v>1100</v>
       </c>
       <c r="E9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F9" s="3">
         <v>400</v>
@@ -817,10 +817,10 @@
         <v>400</v>
       </c>
       <c r="I10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K14" s="3">
         <v>-100</v>
@@ -1028,16 +1028,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E17" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F17" s="3">
         <v>2200</v>
       </c>
       <c r="G17" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H17" s="3">
         <v>2100</v>
@@ -1046,7 +1046,7 @@
         <v>1600</v>
       </c>
       <c r="J17" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1073,13 +1073,13 @@
         <v>-1300</v>
       </c>
       <c r="F18" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G18" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="H18" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="I18" s="3">
         <v>-900</v>
@@ -1165,22 +1165,22 @@
         <v>-800</v>
       </c>
       <c r="E21" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="F21" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G21" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="H21" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="I21" s="3">
         <v>-700</v>
       </c>
       <c r="J21" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1243,10 +1243,10 @@
         <v>-900</v>
       </c>
       <c r="E23" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="F23" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G23" s="3">
         <v>-2500</v>
@@ -1255,7 +1255,7 @@
         <v>-1600</v>
       </c>
       <c r="I23" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="J23" s="3">
         <v>-1900</v>
@@ -1360,10 +1360,10 @@
         <v>-900</v>
       </c>
       <c r="E26" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="F26" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G26" s="3">
         <v>-2500</v>
@@ -1372,7 +1372,7 @@
         <v>-1600</v>
       </c>
       <c r="I26" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="J26" s="3">
         <v>-1900</v>
@@ -1399,10 +1399,10 @@
         <v>-900</v>
       </c>
       <c r="E27" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="F27" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G27" s="3">
         <v>-2500</v>
@@ -1411,7 +1411,7 @@
         <v>-1600</v>
       </c>
       <c r="I27" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="J27" s="3">
         <v>-1900</v>
@@ -1633,10 +1633,10 @@
         <v>-900</v>
       </c>
       <c r="E33" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="F33" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G33" s="3">
         <v>-2500</v>
@@ -1645,7 +1645,7 @@
         <v>-1600</v>
       </c>
       <c r="I33" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="J33" s="3">
         <v>-1900</v>
@@ -1711,10 +1711,10 @@
         <v>-900</v>
       </c>
       <c r="E35" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="F35" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G35" s="3">
         <v>-2500</v>
@@ -1723,7 +1723,7 @@
         <v>-1600</v>
       </c>
       <c r="I35" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="J35" s="3">
         <v>-1900</v>
@@ -1828,7 +1828,7 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F41" s="3">
         <v>1500</v>
@@ -1843,7 +1843,7 @@
         <v>300</v>
       </c>
       <c r="J41" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2035,10 +2035,10 @@
         <v>400</v>
       </c>
       <c r="I46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J46" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -2152,7 +2152,7 @@
         <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>1800</v>
       </c>
       <c r="G54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H54" s="3">
         <v>600</v>
@@ -2350,7 +2350,7 @@
         <v>700</v>
       </c>
       <c r="J54" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
@@ -2483,7 +2483,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -2525,7 +2525,7 @@
         <v>500</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>600</v>
@@ -2759,7 +2759,7 @@
         <v>500</v>
       </c>
       <c r="E66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F66" s="3">
         <v>600</v>
@@ -2968,19 +2968,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="E72" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="F72" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="G72" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="H72" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="I72" s="3">
         <v>-2600</v>
@@ -3249,10 +3249,10 @@
         <v>-900</v>
       </c>
       <c r="E81" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="F81" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G81" s="3">
         <v>-2500</v>
@@ -3261,7 +3261,7 @@
         <v>-1600</v>
       </c>
       <c r="I81" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="J81" s="3">
         <v>-1900</v>
@@ -3542,10 +3542,10 @@
         <v>-900</v>
       </c>
       <c r="F89" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="G89" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="H89" s="3">
         <v>-800</v>
@@ -3554,7 +3554,7 @@
         <v>-500</v>
       </c>
       <c r="J89" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -3927,7 +3927,7 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G100" s="3">
         <v>800</v>
@@ -3999,13 +3999,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E102" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="F102" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G102" s="3">
         <v>-200</v>

--- a/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>PDPTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,90 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43159</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42794</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42429</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42155</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41790</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41425</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41060</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>100</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
@@ -756,35 +759,38 @@
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -795,17 +801,20 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
-      </c>
-      <c r="E10" s="3">
-        <v>400</v>
       </c>
       <c r="F10" s="3">
         <v>400</v>
@@ -817,13 +826,13 @@
         <v>400</v>
       </c>
       <c r="I10" s="3">
+        <v>400</v>
+      </c>
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>100</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -834,9 +843,12 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,53 +945,59 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>3800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -989,8 +1011,8 @@
       <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3">
+        <v>100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,74 +1047,78 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>4000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1099,9 +1128,12 @@
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,8 +1149,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1129,11 +1162,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1143,8 +1176,8 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
@@ -1155,36 +1188,39 @@
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1194,14 +1230,17 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1218,8 +1257,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1233,48 +1272,54 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1306,14 +1351,17 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-3800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-3800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,9 +1650,12 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1597,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1611,8 +1680,8 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
@@ -1623,48 +1692,54 @@
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-3800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-3800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43159</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42794</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42429</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42155</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41790</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41425</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41060</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,8 +1904,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1828,26 +1914,26 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
       </c>
       <c r="J41" s="3">
+        <v>300</v>
+      </c>
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -1855,11 +1941,14 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
-      </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1896,9 +1985,12 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1906,14 +1998,14 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
@@ -1924,7 +2016,7 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1933,11 +2025,14 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
-      </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1974,9 +2069,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1993,19 +2091,19 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2013,9 +2111,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2023,38 +2124,41 @@
         <v>400</v>
       </c>
       <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2091,9 +2195,12 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2116,23 +2223,26 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>100</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>3900</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2140,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -2149,16 +2259,16 @@
         <v>100</v>
       </c>
       <c r="H49" s="3">
+        <v>100</v>
+      </c>
+      <c r="I49" s="3">
         <v>200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>300</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
@@ -2169,9 +2279,12 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,9 +2363,12 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2286,9 +2405,12 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,9 +2447,12 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2335,38 +2460,41 @@
         <v>500</v>
       </c>
       <c r="E54" s="3">
+        <v>500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
-        <v>100</v>
-      </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>4100</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,8 +2528,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2408,64 +2538,67 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -2476,26 +2609,29 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2504,40 +2640,43 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
@@ -2546,17 +2685,20 @@
         <v>300</v>
       </c>
       <c r="L60" s="3">
+        <v>300</v>
+      </c>
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2573,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2593,9 +2735,12 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2632,9 +2777,12 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
       </c>
       <c r="L66" s="3">
+        <v>300</v>
+      </c>
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
-        <v>100</v>
-      </c>
       <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>100</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-200</v>
       </c>
       <c r="L72" s="3">
         <v>-200</v>
       </c>
       <c r="M72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N72" s="3">
         <v>-100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8300</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,9 +3299,12 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3127,38 +3312,41 @@
         <v>0</v>
       </c>
       <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>300</v>
       </c>
       <c r="I76" s="3">
         <v>300</v>
       </c>
       <c r="J76" s="3">
+        <v>300</v>
+      </c>
+      <c r="K76" s="3">
         <v>700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-200</v>
       </c>
       <c r="L76" s="3">
         <v>-200</v>
       </c>
       <c r="M76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43159</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42794</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42429</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42155</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41790</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41425</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41060</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-3800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,13 +3493,14 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -3317,13 +3515,13 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -3334,9 +3532,12 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,8 +3805,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3610,23 +3830,26 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,9 +3928,12 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3712,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
@@ -3721,29 +3950,32 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,9 +4156,12 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3924,38 +4169,41 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>2200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>800</v>
       </c>
       <c r="H100" s="3">
         <v>800</v>
       </c>
       <c r="I100" s="3">
+        <v>800</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3971,8 +4219,8 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
@@ -3989,49 +4237,55 @@
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDPTF_YR_FIN.xlsx
@@ -775,7 +775,7 @@
         <v>1100</v>
       </c>
       <c r="F9" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G9" s="3">
         <v>400</v>
@@ -829,7 +829,7 @@
         <v>400</v>
       </c>
       <c r="J10" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
@@ -1054,19 +1054,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E17" s="3">
         <v>2500</v>
       </c>
       <c r="F17" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G17" s="3">
         <v>2200</v>
       </c>
       <c r="H17" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I17" s="3">
         <v>2100</v>
@@ -1105,10 +1105,10 @@
         <v>-1300</v>
       </c>
       <c r="G18" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="H18" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="I18" s="3">
         <v>-1600</v>
@@ -1207,13 +1207,13 @@
         <v>-1300</v>
       </c>
       <c r="G21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1500</v>
       </c>
       <c r="J21" s="3">
         <v>-700</v>
@@ -1288,7 +1288,7 @@
         <v>-900</v>
       </c>
       <c r="F23" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G23" s="3">
         <v>-1500</v>
@@ -1300,7 +1300,7 @@
         <v>-1600</v>
       </c>
       <c r="J23" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="K23" s="3">
         <v>-1900</v>
@@ -1414,7 +1414,7 @@
         <v>-900</v>
       </c>
       <c r="F26" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G26" s="3">
         <v>-1500</v>
@@ -1426,7 +1426,7 @@
         <v>-1600</v>
       </c>
       <c r="J26" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="K26" s="3">
         <v>-1900</v>
@@ -1456,7 +1456,7 @@
         <v>-900</v>
       </c>
       <c r="F27" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G27" s="3">
         <v>-1500</v>
@@ -1468,7 +1468,7 @@
         <v>-1600</v>
       </c>
       <c r="J27" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="K27" s="3">
         <v>-1900</v>
@@ -1708,7 +1708,7 @@
         <v>-900</v>
       </c>
       <c r="F33" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G33" s="3">
         <v>-1500</v>
@@ -1720,7 +1720,7 @@
         <v>-1600</v>
       </c>
       <c r="J33" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="K33" s="3">
         <v>-1900</v>
@@ -1792,7 +1792,7 @@
         <v>-900</v>
       </c>
       <c r="F35" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G35" s="3">
         <v>-1500</v>
@@ -1804,7 +1804,7 @@
         <v>-1600</v>
       </c>
       <c r="J35" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="K35" s="3">
         <v>-1900</v>
@@ -1917,7 +1917,7 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G41" s="3">
         <v>1500</v>
@@ -2139,7 +2139,7 @@
         <v>400</v>
       </c>
       <c r="J46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K46" s="3">
         <v>900</v>
@@ -2265,7 +2265,7 @@
         <v>200</v>
       </c>
       <c r="J49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
         <v>500</v>
@@ -2469,7 +2469,7 @@
         <v>1800</v>
       </c>
       <c r="H54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I54" s="3">
         <v>600</v>
@@ -2622,7 +2622,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -2667,7 +2667,7 @@
         <v>500</v>
       </c>
       <c r="F60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
@@ -2919,7 +2919,7 @@
         <v>500</v>
       </c>
       <c r="F66" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>600</v>
@@ -3141,19 +3141,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="E72" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="F72" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="G72" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="H72" s="3">
         <v>-4900</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-5000</v>
       </c>
       <c r="I72" s="3">
         <v>-3500</v>
@@ -3446,7 +3446,7 @@
         <v>-900</v>
       </c>
       <c r="F81" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G81" s="3">
         <v>-1500</v>
@@ -3458,7 +3458,7 @@
         <v>-1600</v>
       </c>
       <c r="J81" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="K81" s="3">
         <v>-1900</v>
@@ -3761,10 +3761,10 @@
         <v>-900</v>
       </c>
       <c r="G89" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="H89" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I89" s="3">
         <v>-800</v>
@@ -4253,13 +4253,13 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="G102" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H102" s="3">
         <v>-200</v>
